--- a/Team-Data/2013-14/1-16-2013-14.xlsx
+++ b/Team-Data/2013-14/1-16-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.513</v>
+        <v>0.526</v>
       </c>
       <c r="H2" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I2" t="n">
         <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>9.300000000000001</v>
@@ -696,25 +763,25 @@
         <v>25.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O2" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
         <v>21.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
         <v>25.4</v>
@@ -726,34 +793,34 @@
         <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7</v>
+        <v>101.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -774,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
@@ -801,25 +868,25 @@
         <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -980,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.421</v>
+        <v>0.405</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.371</v>
+        <v>0.363</v>
       </c>
       <c r="O4" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="P4" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T4" t="n">
         <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
@@ -1093,64 +1160,64 @@
         <v>4.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z4" t="n">
         <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-4.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1159,10 +1226,10 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
@@ -1177,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-3.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
@@ -1305,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>24</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -2054,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2084,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA9" t="n">
         <v>10</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>27</v>
@@ -2254,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2266,7 +2333,7 @@
         <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
@@ -2275,7 +2342,7 @@
         <v>17</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
@@ -2424,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
         <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.634</v>
+        <v>0.65</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J12" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L12" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="N12" t="n">
         <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="P12" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.6899999999999999</v>
@@ -2531,10 +2598,10 @@
         <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T12" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
         <v>20</v>
@@ -2543,7 +2610,7 @@
         <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
         <v>6.1</v>
@@ -2558,10 +2625,10 @@
         <v>24.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.9</v>
+        <v>105.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2615,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2630,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
         <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O13" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P13" t="n">
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.787</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
         <v>9.699999999999999</v>
@@ -2719,19 +2786,19 @@
         <v>44.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X13" t="n">
         <v>5.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
         <v>19.8</v>
@@ -2740,16 +2807,16 @@
         <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2761,7 +2828,7 @@
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
@@ -2770,13 +2837,13 @@
         <v>9</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2800,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2809,13 +2876,13 @@
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA13" t="n">
         <v>8</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3164,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3179,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>16</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>-1.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,46 +4209,46 @@
         <v>36.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M21" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="Q21" t="n">
         <v>0.762</v>
       </c>
       <c r="R21" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V21" t="n">
         <v>12.6</v>
       </c>
       <c r="W21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X21" t="n">
         <v>4.5</v>
@@ -4196,28 +4263,28 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG21" t="n">
         <v>21</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="n">
         <v>22</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>24</v>
       </c>
       <c r="AJ21" t="n">
         <v>15</v>
@@ -4232,7 +4299,7 @@
         <v>8</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4253,19 +4320,19 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
         <v>20</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
@@ -4277,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.744</v>
+        <v>0.737</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4333,10 +4400,10 @@
         <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O22" t="n">
         <v>21</v>
@@ -4345,7 +4412,7 @@
         <v>25.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R22" t="n">
         <v>11.1</v>
@@ -4357,37 +4424,37 @@
         <v>46.9</v>
       </c>
       <c r="U22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
         <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB22" t="n">
         <v>104.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
@@ -4396,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
@@ -4414,19 +4481,19 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4438,7 +4505,7 @@
         <v>16</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
         <v>12</v>
@@ -4450,7 +4517,7 @@
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="AN23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>27</v>
@@ -4769,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4975,7 +5042,7 @@
         <v>10</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>12</v>
@@ -4987,7 +5054,7 @@
         <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5327,25 +5394,25 @@
         <v>19</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT27" t="n">
         <v>13</v>
       </c>
       <c r="AU27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -5503,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5530,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5539,7 +5606,7 @@
         <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5667,7 +5734,7 @@
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>7</v>
@@ -5691,13 +5758,13 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>27</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>24</v>
@@ -5888,7 +5955,7 @@
         <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -6058,13 +6125,13 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
@@ -6085,7 +6152,7 @@
         <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-16-2013-14</t>
+          <t>2014-01-16</t>
         </is>
       </c>
     </row>
